--- a/similarities/split_global/harmonic_similarity_timestamps_83.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,650 +484,700 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:02:22.380000', '0:02:25.800000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000')]</t>
+          <t>('0:00:24.401147', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=142.38</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'G#:min/B', 'C#:maj']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:04', '0:00:09.100000')]</t>
+          <t>('0:00:38.860000', '0:00:42.240000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:39.979523', '0:00:47.885918')]</t>
+          <t>('0:01:43.380000', '0:01:57.340000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=4.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.86</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-95#t=39.979523']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=103.38</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:02.080000', '0:01:09.840000')]</t>
+          <t>('0:00:01.440000', '0:00:06.660000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:18.870000', '0:00:25.690000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=62.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C', 'F:min', 'C#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['G', 'C:min', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:26.040000', '0:00:59.820000')]</t>
+          <t>('0:00:09.780000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:59.980000')]</t>
+          <t>('0:00:54.639000', '0:00:59.554000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=26.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=9.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=54.639</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>jaah_53</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['G:min7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:40.450000', '0:00:45.420000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:20.730000', '0:00:24.830000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.73</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:00:07.480000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:07.840000')]</t>
+          <t>('0:00:12.560000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=7.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_97</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G/5', 'D']]</t>
+          <t>['D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:min', 'A#:7/F', 'D#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:18.434000', '0:00:23.353000')]</t>
+          <t>('0:00:09.330793', '0:00:22.635827')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:53.520000', '0:01:01.460000')]</t>
+          <t>('0:00:47.900000', '0:00:51.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=18.434']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-97#t=9.330793</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=53.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=47.9</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
+          <t>('0:00:21.170000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_144</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:min', 'A:min']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:28.536000', '0:00:33.834000')]</t>
+          <t>('0:00:46.740000', '0:00:58.460000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:24.540000', '0:01:34.680000')]</t>
+          <t>('0:00:02', '0:00:05')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=28.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=46.74</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=84.54']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab']]</t>
+          <t>['E:dim7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj']]</t>
+          <t>['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:33.270000', '0:01:42.970000')]</t>
+          <t>('0:00:18.700000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:58.940000', '0:01:05.180000')]</t>
+          <t>('0:01:06.200000', '0:01:10.020000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=93.27']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=18.7</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=58.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=66.2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:16.585782', '0:01:18.064810')]</t>
+          <t>('0:00:36.600000', '0:00:39')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:01:13.620000', '0:01:21.040000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=73.62</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['G:min', 'C:min/G', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:26.200000', '0:00:33.960000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:00.500000', '0:00:03.900000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:20.020000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A'], ['D', 'G', 'D']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:03.560000', '0:01:10.960000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:59.205240', '0:01:06.101566'), ('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=63.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=59.20524', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1137,41 +1187,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>['F:min/G#', 'D#:maj/A#', 'A#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['A:min', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:05.780000', '0:01:19.440000')]</t>
+          <t>('0:01:20.260000', '0:01:25.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:05.440000', '0:00:14.410000')]</t>
+          <t>('0:00:17.573877', '0:00:21.207800')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=80.26</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=17.573877</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
